--- a/scripts/census_2020/inputs/dec2020_variables.xlsx
+++ b/scripts/census_2020/inputs/dec2020_variables.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\rigeodb\processing\geodata_rigeodb\census_2020\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\_geodata\data_public\ossdb\processing\geodata_ossdb\scripts\census_2020\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3ED984-CA55-4E83-8FD0-070AF16A318C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6FE91-BF39-45F2-BE2D-9A26CEFABC83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
-    <sheet name="plrd" sheetId="2" r:id="rId2"/>
-    <sheet name="tracts" sheetId="4" r:id="rId3"/>
-    <sheet name="county_subdivs" sheetId="3" r:id="rId4"/>
-    <sheet name="original" sheetId="1" r:id="rId5"/>
+    <sheet name="count" sheetId="6" r:id="rId2"/>
+    <sheet name="pct" sheetId="7" r:id="rId3"/>
+    <sheet name="plrd" sheetId="2" r:id="rId4"/>
+    <sheet name="tracts" sheetId="4" r:id="rId5"/>
+    <sheet name="county_subdivs" sheetId="3" r:id="rId6"/>
+    <sheet name="zctas" sheetId="8" r:id="rId7"/>
+    <sheet name="plrd_original" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="1507">
   <si>
     <t>H1_001N</t>
   </si>
@@ -2367,6 +2370,2184 @@
   </si>
   <si>
     <t>county_subdivs</t>
+  </si>
+  <si>
+    <t>DP1_0001C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0001P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>DP1_0002C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!Under 5 years</t>
+  </si>
+  <si>
+    <t>DP1_0002P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!Under 5 years</t>
+  </si>
+  <si>
+    <t>DP1_0003C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!5 to 9 years</t>
+  </si>
+  <si>
+    <t>DP1_0003P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!5 to 9 years</t>
+  </si>
+  <si>
+    <t>DP1_0004C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!10 to 14 years</t>
+  </si>
+  <si>
+    <t>DP1_0004P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!10 to 14 years</t>
+  </si>
+  <si>
+    <t>DP1_0005C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!15 to 19 years</t>
+  </si>
+  <si>
+    <t>DP1_0005P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!15 to 19 years</t>
+  </si>
+  <si>
+    <t>DP1_0006C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!20 to 24 years</t>
+  </si>
+  <si>
+    <t>DP1_0006P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!20 to 24 years</t>
+  </si>
+  <si>
+    <t>DP1_0007C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!25 to 29 years</t>
+  </si>
+  <si>
+    <t>DP1_0007P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!25 to 29 years</t>
+  </si>
+  <si>
+    <t>DP1_0008C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!30 to 34 years</t>
+  </si>
+  <si>
+    <t>DP1_0008P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!30 to 34 years</t>
+  </si>
+  <si>
+    <t>DP1_0009C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!35 to 39 years</t>
+  </si>
+  <si>
+    <t>DP1_0009P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!35 to 39 years</t>
+  </si>
+  <si>
+    <t>DP1_0010C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!40 to 44 years</t>
+  </si>
+  <si>
+    <t>DP1_0010P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!40 to 44 years</t>
+  </si>
+  <si>
+    <t>DP1_0011C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!45 to 49 years</t>
+  </si>
+  <si>
+    <t>DP1_0011P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!45 to 49 years</t>
+  </si>
+  <si>
+    <t>DP1_0012C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!50 to 54 years</t>
+  </si>
+  <si>
+    <t>DP1_0012P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!50 to 54 years</t>
+  </si>
+  <si>
+    <t>DP1_0013C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!55 to 59 years</t>
+  </si>
+  <si>
+    <t>DP1_0013P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!55 to 59 years</t>
+  </si>
+  <si>
+    <t>DP1_0014C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!60 to 64 years</t>
+  </si>
+  <si>
+    <t>DP1_0014P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!60 to 64 years</t>
+  </si>
+  <si>
+    <t>DP1_0015C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!65 to 69 years</t>
+  </si>
+  <si>
+    <t>DP1_0015P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!65 to 69 years</t>
+  </si>
+  <si>
+    <t>DP1_0016C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!70 to 74 years</t>
+  </si>
+  <si>
+    <t>DP1_0016P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!70 to 74 years</t>
+  </si>
+  <si>
+    <t>DP1_0017C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!75 to 79 years</t>
+  </si>
+  <si>
+    <t>DP1_0017P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!75 to 79 years</t>
+  </si>
+  <si>
+    <t>DP1_0018C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!80 to 84 years</t>
+  </si>
+  <si>
+    <t>DP1_0018P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!80 to 84 years</t>
+  </si>
+  <si>
+    <t>DP1_0019C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!85 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0019P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!85 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0020C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!Selected Age Categories!!16 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0020P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!Selected Age Categories!!16 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0021C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!Selected Age Categories!!18 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0021P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!Selected Age Categories!!18 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0022C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!Selected Age Categories!!21 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0022P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!Selected Age Categories!!21 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0023C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!Selected Age Categories!!62 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0023P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!Selected Age Categories!!62 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0024C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Total population!!Selected Age Categories!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0024P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Total population!!Selected Age Categories!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0025C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population</t>
+  </si>
+  <si>
+    <t>DP1_0025P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population</t>
+  </si>
+  <si>
+    <t>DP1_0026C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!Under 5 years</t>
+  </si>
+  <si>
+    <t>DP1_0026P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!Under 5 years</t>
+  </si>
+  <si>
+    <t>DP1_0027C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!5 to 9 years</t>
+  </si>
+  <si>
+    <t>DP1_0027P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!5 to 9 years</t>
+  </si>
+  <si>
+    <t>DP1_0028C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!10 to 14 years</t>
+  </si>
+  <si>
+    <t>DP1_0028P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!10 to 14 years</t>
+  </si>
+  <si>
+    <t>DP1_0029C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!15 to 19 years</t>
+  </si>
+  <si>
+    <t>DP1_0029P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!15 to 19 years</t>
+  </si>
+  <si>
+    <t>DP1_0030C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!20 to 24 years</t>
+  </si>
+  <si>
+    <t>DP1_0030P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!20 to 24 years</t>
+  </si>
+  <si>
+    <t>DP1_0031C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!25 to 29 years</t>
+  </si>
+  <si>
+    <t>DP1_0031P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!25 to 29 years</t>
+  </si>
+  <si>
+    <t>DP1_0032C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!30 to 34 years</t>
+  </si>
+  <si>
+    <t>DP1_0032P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!30 to 34 years</t>
+  </si>
+  <si>
+    <t>DP1_0033C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!35 to 39 years</t>
+  </si>
+  <si>
+    <t>DP1_0033P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!35 to 39 years</t>
+  </si>
+  <si>
+    <t>DP1_0034C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!40 to 44 years</t>
+  </si>
+  <si>
+    <t>DP1_0034P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!40 to 44 years</t>
+  </si>
+  <si>
+    <t>DP1_0035C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!45 to 49 years</t>
+  </si>
+  <si>
+    <t>DP1_0035P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!45 to 49 years</t>
+  </si>
+  <si>
+    <t>DP1_0036C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!50 to 54 years</t>
+  </si>
+  <si>
+    <t>DP1_0036P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!50 to 54 years</t>
+  </si>
+  <si>
+    <t>DP1_0037C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!55 to 59 years</t>
+  </si>
+  <si>
+    <t>DP1_0037P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!55 to 59 years</t>
+  </si>
+  <si>
+    <t>DP1_0038C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!60 to 64 years</t>
+  </si>
+  <si>
+    <t>DP1_0038P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!60 to 64 years</t>
+  </si>
+  <si>
+    <t>DP1_0039C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!65 to 69 years</t>
+  </si>
+  <si>
+    <t>DP1_0039P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!65 to 69 years</t>
+  </si>
+  <si>
+    <t>DP1_0040C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!70 to 74 years</t>
+  </si>
+  <si>
+    <t>DP1_0040P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!70 to 74 years</t>
+  </si>
+  <si>
+    <t>DP1_0041C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!75 to 79 years</t>
+  </si>
+  <si>
+    <t>DP1_0041P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!75 to 79 years</t>
+  </si>
+  <si>
+    <t>DP1_0042C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!80 to 84 years</t>
+  </si>
+  <si>
+    <t>DP1_0042P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!80 to 84 years</t>
+  </si>
+  <si>
+    <t>DP1_0043C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!85 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0043P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!85 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0044C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!Selected Age Categories!!16 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0044P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!Selected Age Categories!!16 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0045C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!Selected Age Categories!!18 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0045P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!Selected Age Categories!!18 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0046C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!Selected Age Categories!!21 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0046P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!Selected Age Categories!!21 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0047C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!Selected Age Categories!!62 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0047P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!Selected Age Categories!!62 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0048C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Male population!!Selected Age Categories!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0048P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Male population!!Selected Age Categories!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0049C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population</t>
+  </si>
+  <si>
+    <t>DP1_0049P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population</t>
+  </si>
+  <si>
+    <t>DP1_0050C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!Under 5 years</t>
+  </si>
+  <si>
+    <t>DP1_0050P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!Under 5 years</t>
+  </si>
+  <si>
+    <t>DP1_0051C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!5 to 9 years</t>
+  </si>
+  <si>
+    <t>DP1_0051P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!5 to 9 years</t>
+  </si>
+  <si>
+    <t>DP1_0052C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!10 to 14 years</t>
+  </si>
+  <si>
+    <t>DP1_0052P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!10 to 14 years</t>
+  </si>
+  <si>
+    <t>DP1_0053C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!15 to 19 years</t>
+  </si>
+  <si>
+    <t>DP1_0053P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!15 to 19 years</t>
+  </si>
+  <si>
+    <t>DP1_0054C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!20 to 24 years</t>
+  </si>
+  <si>
+    <t>DP1_0054P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!20 to 24 years</t>
+  </si>
+  <si>
+    <t>DP1_0055C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!25 to 29 years</t>
+  </si>
+  <si>
+    <t>DP1_0055P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!25 to 29 years</t>
+  </si>
+  <si>
+    <t>DP1_0056C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!30 to 34 years</t>
+  </si>
+  <si>
+    <t>DP1_0056P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!30 to 34 years</t>
+  </si>
+  <si>
+    <t>DP1_0057C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!35 to 39 years</t>
+  </si>
+  <si>
+    <t>DP1_0057P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!35 to 39 years</t>
+  </si>
+  <si>
+    <t>DP1_0058C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!40 to 44 years</t>
+  </si>
+  <si>
+    <t>DP1_0058P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!40 to 44 years</t>
+  </si>
+  <si>
+    <t>DP1_0059C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!45 to 49 years</t>
+  </si>
+  <si>
+    <t>DP1_0059P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!45 to 49 years</t>
+  </si>
+  <si>
+    <t>DP1_0060C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!50 to 54 years</t>
+  </si>
+  <si>
+    <t>DP1_0060P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!50 to 54 years</t>
+  </si>
+  <si>
+    <t>DP1_0061C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!55 to 59 years</t>
+  </si>
+  <si>
+    <t>DP1_0061P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!55 to 59 years</t>
+  </si>
+  <si>
+    <t>DP1_0062C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!60 to 64 years</t>
+  </si>
+  <si>
+    <t>DP1_0062P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!60 to 64 years</t>
+  </si>
+  <si>
+    <t>DP1_0063C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!65 to 69 years</t>
+  </si>
+  <si>
+    <t>DP1_0063P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!65 to 69 years</t>
+  </si>
+  <si>
+    <t>DP1_0064C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!70 to 74 years</t>
+  </si>
+  <si>
+    <t>DP1_0064P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!70 to 74 years</t>
+  </si>
+  <si>
+    <t>DP1_0065C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!75 to 79 years</t>
+  </si>
+  <si>
+    <t>DP1_0065P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!75 to 79 years</t>
+  </si>
+  <si>
+    <t>DP1_0066C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!80 to 84 years</t>
+  </si>
+  <si>
+    <t>DP1_0066P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!80 to 84 years</t>
+  </si>
+  <si>
+    <t>DP1_0067C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!85 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0067P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!85 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0068C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!Selected Age Categories!!16 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0068P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!Selected Age Categories!!16 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0069C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!Selected Age Categories!!18 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0069P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!Selected Age Categories!!18 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0070C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!Selected Age Categories!!21 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0070P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!Selected Age Categories!!21 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0071C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!Selected Age Categories!!62 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0071P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!Selected Age Categories!!62 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0072C</t>
+  </si>
+  <si>
+    <t>Count!!SEX AND AGE!!Female population!!Selected Age Categories!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0072P</t>
+  </si>
+  <si>
+    <t>Percent!!SEX AND AGE!!Female population!!Selected Age Categories!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0073C</t>
+  </si>
+  <si>
+    <t>Count!!MEDIAN AGE BY SEX!!Both sexes</t>
+  </si>
+  <si>
+    <t>DP1_0073P</t>
+  </si>
+  <si>
+    <t>Percent!!MEDIAN AGE BY SEX!!Both sexes</t>
+  </si>
+  <si>
+    <t>DP1_0074C</t>
+  </si>
+  <si>
+    <t>Count!!MEDIAN AGE BY SEX!!Male</t>
+  </si>
+  <si>
+    <t>DP1_0074P</t>
+  </si>
+  <si>
+    <t>Percent!!MEDIAN AGE BY SEX!!Male</t>
+  </si>
+  <si>
+    <t>DP1_0075C</t>
+  </si>
+  <si>
+    <t>Count!!MEDIAN AGE BY SEX!!Female</t>
+  </si>
+  <si>
+    <t>DP1_0075P</t>
+  </si>
+  <si>
+    <t>Percent!!MEDIAN AGE BY SEX!!Female</t>
+  </si>
+  <si>
+    <t>DP1_0076C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0076P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0077C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population!!One Race</t>
+  </si>
+  <si>
+    <t>DP1_0077P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population!!One Race</t>
+  </si>
+  <si>
+    <t>DP1_0078C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population!!One Race!!White</t>
+  </si>
+  <si>
+    <t>DP1_0078P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population!!One Race!!White</t>
+  </si>
+  <si>
+    <t>DP1_0079C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population!!One Race!!Black or African American</t>
+  </si>
+  <si>
+    <t>DP1_0079P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population!!One Race!!Black or African American</t>
+  </si>
+  <si>
+    <t>DP1_0080C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population!!One Race!!American Indian and Alaska Native</t>
+  </si>
+  <si>
+    <t>DP1_0080P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population!!One Race!!American Indian and Alaska Native</t>
+  </si>
+  <si>
+    <t>DP1_0081C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population!!One Race!!Asian</t>
+  </si>
+  <si>
+    <t>DP1_0081P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population!!One Race!!Asian</t>
+  </si>
+  <si>
+    <t>DP1_0082C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population!!One Race!!Native Hawaiian and Other Pacific Islander</t>
+  </si>
+  <si>
+    <t>DP1_0082P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population!!One Race!!Native Hawaiian and Other Pacific Islander</t>
+  </si>
+  <si>
+    <t>DP1_0083C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population!!One Race!!Some Other Race</t>
+  </si>
+  <si>
+    <t>DP1_0083P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population!!One Race!!Some Other Race</t>
+  </si>
+  <si>
+    <t>DP1_0084C</t>
+  </si>
+  <si>
+    <t>Count!!RACE!!Total population!!Two or More Races</t>
+  </si>
+  <si>
+    <t>DP1_0084P</t>
+  </si>
+  <si>
+    <t>Percent!!RACE!!Total population!!Two or More Races</t>
+  </si>
+  <si>
+    <t>DP1_0085C</t>
+  </si>
+  <si>
+    <t>Count!!TOTAL RACES TALLIED [1]!!Total races tallied</t>
+  </si>
+  <si>
+    <t>DP1_0085P</t>
+  </si>
+  <si>
+    <t>Percent!!TOTAL RACES TALLIED [1]!!Total races tallied</t>
+  </si>
+  <si>
+    <t>DP1_0086C</t>
+  </si>
+  <si>
+    <t>Count!!TOTAL RACES TALLIED [1]!!Total races tallied!!White alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0086P</t>
+  </si>
+  <si>
+    <t>Percent!!TOTAL RACES TALLIED [1]!!Total races tallied!!White alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0087C</t>
+  </si>
+  <si>
+    <t>Count!!TOTAL RACES TALLIED [1]!!Total races tallied!!Black or African American alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0087P</t>
+  </si>
+  <si>
+    <t>Percent!!TOTAL RACES TALLIED [1]!!Total races tallied!!Black or African American alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0088C</t>
+  </si>
+  <si>
+    <t>Count!!TOTAL RACES TALLIED [1]!!Total races tallied!!American Indian and Alaska Native alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0088P</t>
+  </si>
+  <si>
+    <t>Percent!!TOTAL RACES TALLIED [1]!!Total races tallied!!American Indian and Alaska Native alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0089C</t>
+  </si>
+  <si>
+    <t>Count!!TOTAL RACES TALLIED [1]!!Total races tallied!!Asian alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0089P</t>
+  </si>
+  <si>
+    <t>Percent!!TOTAL RACES TALLIED [1]!!Total races tallied!!Asian alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0090C</t>
+  </si>
+  <si>
+    <t>Count!!TOTAL RACES TALLIED [1]!!Total races tallied!!Native Hawaiian and Other Pacific Islander alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0090P</t>
+  </si>
+  <si>
+    <t>Percent!!TOTAL RACES TALLIED [1]!!Total races tallied!!Native Hawaiian and Other Pacific Islander alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0091C</t>
+  </si>
+  <si>
+    <t>Count!!TOTAL RACES TALLIED [1]!!Total races tallied!!Some Other Race alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0091P</t>
+  </si>
+  <si>
+    <t>Percent!!TOTAL RACES TALLIED [1]!!Total races tallied!!Some Other Race alone or in combination with one or more other races</t>
+  </si>
+  <si>
+    <t>DP1_0092C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0092P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0093C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO!!Total population!!Hispanic or Latino (of any race)</t>
+  </si>
+  <si>
+    <t>DP1_0093P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO!!Total population!!Hispanic or Latino (of any race)</t>
+  </si>
+  <si>
+    <t>DP1_0094C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO!!Total population!!Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>DP1_0094P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO!!Total population!!Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>DP1_0095C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0095P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0096C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>DP1_0096P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>DP1_0097C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!White alone</t>
+  </si>
+  <si>
+    <t>DP1_0097P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!White alone</t>
+  </si>
+  <si>
+    <t>DP1_0098C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Black or African American alone</t>
+  </si>
+  <si>
+    <t>DP1_0098P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Black or African American alone</t>
+  </si>
+  <si>
+    <t>DP1_0099C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!American Indian and Alaska Native alone</t>
+  </si>
+  <si>
+    <t>DP1_0099P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!American Indian and Alaska Native alone</t>
+  </si>
+  <si>
+    <t>DP1_0100C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Asian alone</t>
+  </si>
+  <si>
+    <t>DP1_0100P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Asian alone</t>
+  </si>
+  <si>
+    <t>DP1_0101C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Native Hawaiian and Other Pacific Islander alone</t>
+  </si>
+  <si>
+    <t>DP1_0101P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Native Hawaiian and Other Pacific Islander alone</t>
+  </si>
+  <si>
+    <t>DP1_0102C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Some Other Race alone</t>
+  </si>
+  <si>
+    <t>DP1_0102P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Some Other Race alone</t>
+  </si>
+  <si>
+    <t>DP1_0103C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Two or More Races</t>
+  </si>
+  <si>
+    <t>DP1_0103P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Hispanic or Latino!!Two or More Races</t>
+  </si>
+  <si>
+    <t>DP1_0104C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>DP1_0104P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>DP1_0105C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!White alone</t>
+  </si>
+  <si>
+    <t>DP1_0105P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!White alone</t>
+  </si>
+  <si>
+    <t>DP1_0106C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Black or African American alone</t>
+  </si>
+  <si>
+    <t>DP1_0106P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Black or African American alone</t>
+  </si>
+  <si>
+    <t>DP1_0107C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!American Indian and Alaska Native alone</t>
+  </si>
+  <si>
+    <t>DP1_0107P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!American Indian and Alaska Native alone</t>
+  </si>
+  <si>
+    <t>DP1_0108C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Asian alone</t>
+  </si>
+  <si>
+    <t>DP1_0108P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Asian alone</t>
+  </si>
+  <si>
+    <t>DP1_0109C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Native Hawaiian and Other Pacific Islander alone</t>
+  </si>
+  <si>
+    <t>DP1_0109P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Native Hawaiian and Other Pacific Islander alone</t>
+  </si>
+  <si>
+    <t>DP1_0110C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Some Other Race alone</t>
+  </si>
+  <si>
+    <t>DP1_0110P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Some Other Race alone</t>
+  </si>
+  <si>
+    <t>DP1_0111C</t>
+  </si>
+  <si>
+    <t>Count!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Two or More Races</t>
+  </si>
+  <si>
+    <t>DP1_0111P</t>
+  </si>
+  <si>
+    <t>Percent!!HISPANIC OR LATINO BY RACE!!Total population!!Not Hispanic or Latino!!Two or More Races</t>
+  </si>
+  <si>
+    <t>DP1_0112C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0112P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population</t>
+  </si>
+  <si>
+    <t>DP1_0113C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households</t>
+  </si>
+  <si>
+    <t>DP1_0113P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households</t>
+  </si>
+  <si>
+    <t>DP1_0114C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Householder</t>
+  </si>
+  <si>
+    <t>DP1_0114P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Householder</t>
+  </si>
+  <si>
+    <t>DP1_0115C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Opposite-sex spouse</t>
+  </si>
+  <si>
+    <t>DP1_0115P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Opposite-sex spouse</t>
+  </si>
+  <si>
+    <t>DP1_0116C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Same-sex spouse</t>
+  </si>
+  <si>
+    <t>DP1_0116P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Same-sex spouse</t>
+  </si>
+  <si>
+    <t>DP1_0117C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Opposite-sex unmarried partner</t>
+  </si>
+  <si>
+    <t>DP1_0117P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Opposite-sex unmarried partner</t>
+  </si>
+  <si>
+    <t>DP1_0118C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Same-sex unmarried partner</t>
+  </si>
+  <si>
+    <t>DP1_0118P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Same-sex unmarried partner</t>
+  </si>
+  <si>
+    <t>DP1_0119C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Child [2]</t>
+  </si>
+  <si>
+    <t>DP1_0119P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Child [2]</t>
+  </si>
+  <si>
+    <t>DP1_0120C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Child [2]!!Under 18 years</t>
+  </si>
+  <si>
+    <t>DP1_0120P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Child [2]!!Under 18 years</t>
+  </si>
+  <si>
+    <t>DP1_0121C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Grandchild</t>
+  </si>
+  <si>
+    <t>DP1_0121P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Grandchild</t>
+  </si>
+  <si>
+    <t>DP1_0122C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Grandchild!!Under 18 years</t>
+  </si>
+  <si>
+    <t>DP1_0122P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Grandchild!!Under 18 years</t>
+  </si>
+  <si>
+    <t>DP1_0123C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Other relatives</t>
+  </si>
+  <si>
+    <t>DP1_0123P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Other relatives</t>
+  </si>
+  <si>
+    <t>DP1_0124C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In households!!Nonrelatives</t>
+  </si>
+  <si>
+    <t>DP1_0124P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In households!!Nonrelatives</t>
+  </si>
+  <si>
+    <t>DP1_0125C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In group quarters</t>
+  </si>
+  <si>
+    <t>DP1_0125P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In group quarters</t>
+  </si>
+  <si>
+    <t>DP1_0126C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In group quarters!!Institutionalized population:</t>
+  </si>
+  <si>
+    <t>DP1_0126P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In group quarters!!Institutionalized population:</t>
+  </si>
+  <si>
+    <t>DP1_0127C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In group quarters!!Institutionalized population:!!Male</t>
+  </si>
+  <si>
+    <t>DP1_0127P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In group quarters!!Institutionalized population:!!Male</t>
+  </si>
+  <si>
+    <t>DP1_0128C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In group quarters!!Institutionalized population:!!Female</t>
+  </si>
+  <si>
+    <t>DP1_0128P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In group quarters!!Institutionalized population:!!Female</t>
+  </si>
+  <si>
+    <t>DP1_0129C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In group quarters!!Noninstitutionalized population:</t>
+  </si>
+  <si>
+    <t>DP1_0129P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In group quarters!!Noninstitutionalized population:</t>
+  </si>
+  <si>
+    <t>DP1_0130C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In group quarters!!Noninstitutionalized population:!!Male</t>
+  </si>
+  <si>
+    <t>DP1_0130P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In group quarters!!Noninstitutionalized population:!!Male</t>
+  </si>
+  <si>
+    <t>DP1_0131C</t>
+  </si>
+  <si>
+    <t>Count!!RELATIONSHIP!!Total population!!In group quarters!!Noninstitutionalized population:!!Female</t>
+  </si>
+  <si>
+    <t>DP1_0131P</t>
+  </si>
+  <si>
+    <t>Percent!!RELATIONSHIP!!Total population!!In group quarters!!Noninstitutionalized population:!!Female</t>
+  </si>
+  <si>
+    <t>DP1_0132C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households</t>
+  </si>
+  <si>
+    <t>DP1_0132P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households</t>
+  </si>
+  <si>
+    <t>DP1_0133C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Married couple household</t>
+  </si>
+  <si>
+    <t>DP1_0133P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Married couple household</t>
+  </si>
+  <si>
+    <t>DP1_0134C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Married couple household!!With own children under 18 [3]</t>
+  </si>
+  <si>
+    <t>DP1_0134P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Married couple household!!With own children under 18 [3]</t>
+  </si>
+  <si>
+    <t>DP1_0135C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Cohabiting couple household</t>
+  </si>
+  <si>
+    <t>DP1_0135P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Cohabiting couple household</t>
+  </si>
+  <si>
+    <t>DP1_0136C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Cohabiting couple household!!With own children under 18 [3]</t>
+  </si>
+  <si>
+    <t>DP1_0136P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Cohabiting couple household!!With own children under 18 [3]</t>
+  </si>
+  <si>
+    <t>DP1_0137C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Male householder, no spouse or partner present:</t>
+  </si>
+  <si>
+    <t>DP1_0137P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Male householder, no spouse or partner present:</t>
+  </si>
+  <si>
+    <t>DP1_0138C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Male householder, no spouse or partner present:!!Living alone</t>
+  </si>
+  <si>
+    <t>DP1_0138P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Male householder, no spouse or partner present:!!Living alone</t>
+  </si>
+  <si>
+    <t>DP1_0139C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Male householder, no spouse or partner present:!!Living alone!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0139P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Male householder, no spouse or partner present:!!Living alone!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0140C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Male householder, no spouse or partner present:!!With own children under 18 [3]</t>
+  </si>
+  <si>
+    <t>DP1_0140P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Male householder, no spouse or partner present:!!With own children under 18 [3]</t>
+  </si>
+  <si>
+    <t>DP1_0141C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Female householder, no spouse or partner present:</t>
+  </si>
+  <si>
+    <t>DP1_0141P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Female householder, no spouse or partner present:</t>
+  </si>
+  <si>
+    <t>DP1_0142C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Female householder, no spouse or partner present:!!Living alone</t>
+  </si>
+  <si>
+    <t>DP1_0142P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Female householder, no spouse or partner present:!!Living alone</t>
+  </si>
+  <si>
+    <t>DP1_0143C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Female householder, no spouse or partner present:!!Living alone!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0143P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Female householder, no spouse or partner present:!!Living alone!!65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0144C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Female householder, no spouse or partner present:!!With own children under 18 [3]</t>
+  </si>
+  <si>
+    <t>DP1_0144P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Female householder, no spouse or partner present:!!With own children under 18 [3]</t>
+  </si>
+  <si>
+    <t>DP1_0145C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Households with individuals under 18 years</t>
+  </si>
+  <si>
+    <t>DP1_0145P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Households with individuals under 18 years</t>
+  </si>
+  <si>
+    <t>DP1_0146C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSEHOLDS BY TYPE!!Total households!!Households with individuals 65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0146P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSEHOLDS BY TYPE!!Total households!!Households with individuals 65 years and over</t>
+  </si>
+  <si>
+    <t>DP1_0147C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units</t>
+  </si>
+  <si>
+    <t>DP1_0147P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units</t>
+  </si>
+  <si>
+    <t>DP1_0148C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units!!Occupied housing units</t>
+  </si>
+  <si>
+    <t>DP1_0148P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units!!Occupied housing units</t>
+  </si>
+  <si>
+    <t>DP1_0149C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units</t>
+  </si>
+  <si>
+    <t>DP1_0149P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units</t>
+  </si>
+  <si>
+    <t>DP1_0150C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!For rent</t>
+  </si>
+  <si>
+    <t>DP1_0150P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!For rent</t>
+  </si>
+  <si>
+    <t>DP1_0151C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!Rented, not occupied</t>
+  </si>
+  <si>
+    <t>DP1_0151P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!Rented, not occupied</t>
+  </si>
+  <si>
+    <t>DP1_0152C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!For sale only</t>
+  </si>
+  <si>
+    <t>DP1_0152P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!For sale only</t>
+  </si>
+  <si>
+    <t>DP1_0153C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!Sold, not occupied</t>
+  </si>
+  <si>
+    <t>DP1_0153P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!Sold, not occupied</t>
+  </si>
+  <si>
+    <t>DP1_0154C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!For seasonal, recreational, or occasional use</t>
+  </si>
+  <si>
+    <t>DP1_0154P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!For seasonal, recreational, or occasional use</t>
+  </si>
+  <si>
+    <t>DP1_0155C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!All other vacants</t>
+  </si>
+  <si>
+    <t>DP1_0155P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING OCCUPANCY!!Total housing units!!Vacant housing units!!All other vacants</t>
+  </si>
+  <si>
+    <t>DP1_0156C</t>
+  </si>
+  <si>
+    <t>Count!!VACANCY RATES!!Homeowner vacancy rate (percent) [4]</t>
+  </si>
+  <si>
+    <t>DP1_0156P</t>
+  </si>
+  <si>
+    <t>Percent!!VACANCY RATES!!Homeowner vacancy rate (percent) [4]</t>
+  </si>
+  <si>
+    <t>DP1_0157C</t>
+  </si>
+  <si>
+    <t>Count!!VACANCY RATES!!Rental vacancy rate (percent) [5]</t>
+  </si>
+  <si>
+    <t>DP1_0157P</t>
+  </si>
+  <si>
+    <t>Percent!!VACANCY RATES!!Rental vacancy rate (percent) [5]</t>
+  </si>
+  <si>
+    <t>DP1_0158C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING TENURE!!Occupied housing units</t>
+  </si>
+  <si>
+    <t>DP1_0158P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING TENURE!!Occupied housing units</t>
+  </si>
+  <si>
+    <t>DP1_0159C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING TENURE!!Occupied housing units!!Owner-occupied housing units</t>
+  </si>
+  <si>
+    <t>DP1_0159P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING TENURE!!Occupied housing units!!Owner-occupied housing units</t>
+  </si>
+  <si>
+    <t>DP1_0160C</t>
+  </si>
+  <si>
+    <t>Count!!HOUSING TENURE!!Occupied housing units!!Renter-occupied housing units</t>
+  </si>
+  <si>
+    <t>DP1_0160P</t>
+  </si>
+  <si>
+    <t>Percent!!HOUSING TENURE!!Occupied housing units!!Renter-occupied housing units</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>Census count variables from the demographic profile, with census names, labels, and types from the API</t>
+  </si>
+  <si>
+    <t>Census percent total variables from the demographic profile, with census names, labels, and types from the API</t>
+  </si>
+  <si>
+    <t>02802</t>
+  </si>
+  <si>
+    <t>02804</t>
+  </si>
+  <si>
+    <t>02806</t>
+  </si>
+  <si>
+    <t>02807</t>
+  </si>
+  <si>
+    <t>02808</t>
+  </si>
+  <si>
+    <t>02809</t>
+  </si>
+  <si>
+    <t>02812</t>
+  </si>
+  <si>
+    <t>02813</t>
+  </si>
+  <si>
+    <t>02814</t>
+  </si>
+  <si>
+    <t>02815</t>
+  </si>
+  <si>
+    <t>02816</t>
+  </si>
+  <si>
+    <t>02817</t>
+  </si>
+  <si>
+    <t>02818</t>
+  </si>
+  <si>
+    <t>02822</t>
+  </si>
+  <si>
+    <t>02823</t>
+  </si>
+  <si>
+    <t>02824</t>
+  </si>
+  <si>
+    <t>02825</t>
+  </si>
+  <si>
+    <t>02826</t>
+  </si>
+  <si>
+    <t>02827</t>
+  </si>
+  <si>
+    <t>02828</t>
+  </si>
+  <si>
+    <t>02829</t>
+  </si>
+  <si>
+    <t>02830</t>
+  </si>
+  <si>
+    <t>02831</t>
+  </si>
+  <si>
+    <t>02832</t>
+  </si>
+  <si>
+    <t>02833</t>
+  </si>
+  <si>
+    <t>02835</t>
+  </si>
+  <si>
+    <t>02836</t>
+  </si>
+  <si>
+    <t>02837</t>
+  </si>
+  <si>
+    <t>02838</t>
+  </si>
+  <si>
+    <t>02839</t>
+  </si>
+  <si>
+    <t>02840</t>
+  </si>
+  <si>
+    <t>02841</t>
+  </si>
+  <si>
+    <t>02842</t>
+  </si>
+  <si>
+    <t>02852</t>
+  </si>
+  <si>
+    <t>02857</t>
+  </si>
+  <si>
+    <t>02858</t>
+  </si>
+  <si>
+    <t>02859</t>
+  </si>
+  <si>
+    <t>02860</t>
+  </si>
+  <si>
+    <t>02861</t>
+  </si>
+  <si>
+    <t>02863</t>
+  </si>
+  <si>
+    <t>02864</t>
+  </si>
+  <si>
+    <t>02865</t>
+  </si>
+  <si>
+    <t>02871</t>
+  </si>
+  <si>
+    <t>02872</t>
+  </si>
+  <si>
+    <t>02873</t>
+  </si>
+  <si>
+    <t>02874</t>
+  </si>
+  <si>
+    <t>02875</t>
+  </si>
+  <si>
+    <t>02876</t>
+  </si>
+  <si>
+    <t>02878</t>
+  </si>
+  <si>
+    <t>02879</t>
+  </si>
+  <si>
+    <t>02881</t>
+  </si>
+  <si>
+    <t>02882</t>
+  </si>
+  <si>
+    <t>02885</t>
+  </si>
+  <si>
+    <t>02886</t>
+  </si>
+  <si>
+    <t>02888</t>
+  </si>
+  <si>
+    <t>02889</t>
+  </si>
+  <si>
+    <t>02891</t>
+  </si>
+  <si>
+    <t>02892</t>
+  </si>
+  <si>
+    <t>02893</t>
+  </si>
+  <si>
+    <t>02894</t>
+  </si>
+  <si>
+    <t>02895</t>
+  </si>
+  <si>
+    <t>02896</t>
+  </si>
+  <si>
+    <t>02898</t>
+  </si>
+  <si>
+    <t>02903</t>
+  </si>
+  <si>
+    <t>02904</t>
+  </si>
+  <si>
+    <t>02905</t>
+  </si>
+  <si>
+    <t>02906</t>
+  </si>
+  <si>
+    <t>02907</t>
+  </si>
+  <si>
+    <t>02908</t>
+  </si>
+  <si>
+    <t>02909</t>
+  </si>
+  <si>
+    <t>02910</t>
+  </si>
+  <si>
+    <t>02911</t>
+  </si>
+  <si>
+    <t>02912</t>
+  </si>
+  <si>
+    <t>02914</t>
+  </si>
+  <si>
+    <t>02915</t>
+  </si>
+  <si>
+    <t>02916</t>
+  </si>
+  <si>
+    <t>02917</t>
+  </si>
+  <si>
+    <t>02918</t>
+  </si>
+  <si>
+    <t>02919</t>
+  </si>
+  <si>
+    <t>02920</t>
+  </si>
+  <si>
+    <t>02921</t>
   </si>
 </sst>
 </file>
@@ -3227,10 +5408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3251,33 +5432,49 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>777</v>
+        <v>1422</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>779</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>780</v>
+        <v>1423</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>773</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>776</v>
       </c>
     </row>
@@ -3292,10 +5489,3599 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0DC7D8-1A27-45EC-9C23-EF65F74D4177}">
+  <dimension ref="A1:C161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B3" t="s">
+        <v>787</v>
+      </c>
+      <c r="C3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>794</v>
+      </c>
+      <c r="B5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>802</v>
+      </c>
+      <c r="B7" t="s">
+        <v>803</v>
+      </c>
+      <c r="C7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>806</v>
+      </c>
+      <c r="B8" t="s">
+        <v>807</v>
+      </c>
+      <c r="C8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" t="s">
+        <v>811</v>
+      </c>
+      <c r="C9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>814</v>
+      </c>
+      <c r="B10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C10" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>818</v>
+      </c>
+      <c r="B11" t="s">
+        <v>819</v>
+      </c>
+      <c r="C11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>822</v>
+      </c>
+      <c r="B12" t="s">
+        <v>823</v>
+      </c>
+      <c r="C12" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>826</v>
+      </c>
+      <c r="B13" t="s">
+        <v>827</v>
+      </c>
+      <c r="C13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>830</v>
+      </c>
+      <c r="B14" t="s">
+        <v>831</v>
+      </c>
+      <c r="C14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>834</v>
+      </c>
+      <c r="B15" t="s">
+        <v>835</v>
+      </c>
+      <c r="C15" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>838</v>
+      </c>
+      <c r="B16" t="s">
+        <v>839</v>
+      </c>
+      <c r="C16" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>842</v>
+      </c>
+      <c r="B17" t="s">
+        <v>843</v>
+      </c>
+      <c r="C17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>846</v>
+      </c>
+      <c r="B18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C18" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>850</v>
+      </c>
+      <c r="B19" t="s">
+        <v>851</v>
+      </c>
+      <c r="C19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>854</v>
+      </c>
+      <c r="B20" t="s">
+        <v>855</v>
+      </c>
+      <c r="C20" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>858</v>
+      </c>
+      <c r="B21" t="s">
+        <v>859</v>
+      </c>
+      <c r="C21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>862</v>
+      </c>
+      <c r="B22" t="s">
+        <v>863</v>
+      </c>
+      <c r="C22" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>866</v>
+      </c>
+      <c r="B23" t="s">
+        <v>867</v>
+      </c>
+      <c r="C23" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>870</v>
+      </c>
+      <c r="B24" t="s">
+        <v>871</v>
+      </c>
+      <c r="C24" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>874</v>
+      </c>
+      <c r="B25" t="s">
+        <v>875</v>
+      </c>
+      <c r="C25" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>878</v>
+      </c>
+      <c r="B26" t="s">
+        <v>879</v>
+      </c>
+      <c r="C26" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>882</v>
+      </c>
+      <c r="B27" t="s">
+        <v>883</v>
+      </c>
+      <c r="C27" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>886</v>
+      </c>
+      <c r="B28" t="s">
+        <v>887</v>
+      </c>
+      <c r="C28" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>890</v>
+      </c>
+      <c r="B29" t="s">
+        <v>891</v>
+      </c>
+      <c r="C29" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>894</v>
+      </c>
+      <c r="B30" t="s">
+        <v>895</v>
+      </c>
+      <c r="C30" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>898</v>
+      </c>
+      <c r="B31" t="s">
+        <v>899</v>
+      </c>
+      <c r="C31" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>902</v>
+      </c>
+      <c r="B32" t="s">
+        <v>903</v>
+      </c>
+      <c r="C32" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>906</v>
+      </c>
+      <c r="B33" t="s">
+        <v>907</v>
+      </c>
+      <c r="C33" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>910</v>
+      </c>
+      <c r="B34" t="s">
+        <v>911</v>
+      </c>
+      <c r="C34" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>914</v>
+      </c>
+      <c r="B35" t="s">
+        <v>915</v>
+      </c>
+      <c r="C35" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>918</v>
+      </c>
+      <c r="B36" t="s">
+        <v>919</v>
+      </c>
+      <c r="C36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>922</v>
+      </c>
+      <c r="B37" t="s">
+        <v>923</v>
+      </c>
+      <c r="C37" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>926</v>
+      </c>
+      <c r="B38" t="s">
+        <v>927</v>
+      </c>
+      <c r="C38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>930</v>
+      </c>
+      <c r="B39" t="s">
+        <v>931</v>
+      </c>
+      <c r="C39" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>934</v>
+      </c>
+      <c r="B40" t="s">
+        <v>935</v>
+      </c>
+      <c r="C40" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>938</v>
+      </c>
+      <c r="B41" t="s">
+        <v>939</v>
+      </c>
+      <c r="C41" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>942</v>
+      </c>
+      <c r="B42" t="s">
+        <v>943</v>
+      </c>
+      <c r="C42" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>946</v>
+      </c>
+      <c r="B43" t="s">
+        <v>947</v>
+      </c>
+      <c r="C43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>950</v>
+      </c>
+      <c r="B44" t="s">
+        <v>951</v>
+      </c>
+      <c r="C44" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>954</v>
+      </c>
+      <c r="B45" t="s">
+        <v>955</v>
+      </c>
+      <c r="C45" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>958</v>
+      </c>
+      <c r="B46" t="s">
+        <v>959</v>
+      </c>
+      <c r="C46" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>962</v>
+      </c>
+      <c r="B47" t="s">
+        <v>963</v>
+      </c>
+      <c r="C47" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>966</v>
+      </c>
+      <c r="B48" t="s">
+        <v>967</v>
+      </c>
+      <c r="C48" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>970</v>
+      </c>
+      <c r="B49" t="s">
+        <v>971</v>
+      </c>
+      <c r="C49" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>974</v>
+      </c>
+      <c r="B50" t="s">
+        <v>975</v>
+      </c>
+      <c r="C50" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>978</v>
+      </c>
+      <c r="B51" t="s">
+        <v>979</v>
+      </c>
+      <c r="C51" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>982</v>
+      </c>
+      <c r="B52" t="s">
+        <v>983</v>
+      </c>
+      <c r="C52" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>986</v>
+      </c>
+      <c r="B53" t="s">
+        <v>987</v>
+      </c>
+      <c r="C53" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>990</v>
+      </c>
+      <c r="B54" t="s">
+        <v>991</v>
+      </c>
+      <c r="C54" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>994</v>
+      </c>
+      <c r="B55" t="s">
+        <v>995</v>
+      </c>
+      <c r="C55" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>998</v>
+      </c>
+      <c r="B56" t="s">
+        <v>999</v>
+      </c>
+      <c r="C56" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C57" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C58" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C59" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C60" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C61" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C62" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C63" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C64" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C65" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C66" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C67" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C68" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C69" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C70" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C71" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C72" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C73" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C74" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C75" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C76" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C77" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C78" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C79" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C80" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C81" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C84" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C85" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C86" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C87" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C88" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C89" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C90" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C91" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C92" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C93" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C94" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C95" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C96" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C97" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C98" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C99" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C100" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C101" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C102" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C103" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C104" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C106" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C107" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C108" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C109" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C110" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C111" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C113" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C114" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C115" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C116" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C117" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C118" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C119" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C120" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C121" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C122" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C123" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C124" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C125" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C126" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C127" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C128" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C129" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C130" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C131" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C132" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C133" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C134" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C135" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C136" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C137" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C138" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C139" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C140" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C141" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C142" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C143" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C144" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C145" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C146" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C147" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C148" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C149" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C150" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C151" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C152" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C153" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C154" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C155" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C156" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C157" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C158" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C159" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C160" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C161" t="s">
+        <v>762</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C322">
+    <sortCondition ref="A2:A322"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F2400C-5748-41E9-B4EA-4A86C541A1BF}">
+  <dimension ref="A1:C161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>796</v>
+      </c>
+      <c r="B5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B7" t="s">
+        <v>805</v>
+      </c>
+      <c r="C7" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C8" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B9" t="s">
+        <v>813</v>
+      </c>
+      <c r="C9" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>816</v>
+      </c>
+      <c r="B10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>820</v>
+      </c>
+      <c r="B11" t="s">
+        <v>821</v>
+      </c>
+      <c r="C11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>824</v>
+      </c>
+      <c r="B12" t="s">
+        <v>825</v>
+      </c>
+      <c r="C12" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>828</v>
+      </c>
+      <c r="B13" t="s">
+        <v>829</v>
+      </c>
+      <c r="C13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>832</v>
+      </c>
+      <c r="B14" t="s">
+        <v>833</v>
+      </c>
+      <c r="C14" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>836</v>
+      </c>
+      <c r="B15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C15" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>840</v>
+      </c>
+      <c r="B16" t="s">
+        <v>841</v>
+      </c>
+      <c r="C16" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>844</v>
+      </c>
+      <c r="B17" t="s">
+        <v>845</v>
+      </c>
+      <c r="C17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>848</v>
+      </c>
+      <c r="B18" t="s">
+        <v>849</v>
+      </c>
+      <c r="C18" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>852</v>
+      </c>
+      <c r="B19" t="s">
+        <v>853</v>
+      </c>
+      <c r="C19" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>856</v>
+      </c>
+      <c r="B20" t="s">
+        <v>857</v>
+      </c>
+      <c r="C20" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>860</v>
+      </c>
+      <c r="B21" t="s">
+        <v>861</v>
+      </c>
+      <c r="C21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>864</v>
+      </c>
+      <c r="B22" t="s">
+        <v>865</v>
+      </c>
+      <c r="C22" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>868</v>
+      </c>
+      <c r="B23" t="s">
+        <v>869</v>
+      </c>
+      <c r="C23" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>872</v>
+      </c>
+      <c r="B24" t="s">
+        <v>873</v>
+      </c>
+      <c r="C24" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>876</v>
+      </c>
+      <c r="B25" t="s">
+        <v>877</v>
+      </c>
+      <c r="C25" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>880</v>
+      </c>
+      <c r="B26" t="s">
+        <v>881</v>
+      </c>
+      <c r="C26" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>884</v>
+      </c>
+      <c r="B27" t="s">
+        <v>885</v>
+      </c>
+      <c r="C27" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>888</v>
+      </c>
+      <c r="B28" t="s">
+        <v>889</v>
+      </c>
+      <c r="C28" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>892</v>
+      </c>
+      <c r="B29" t="s">
+        <v>893</v>
+      </c>
+      <c r="C29" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>896</v>
+      </c>
+      <c r="B30" t="s">
+        <v>897</v>
+      </c>
+      <c r="C30" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>900</v>
+      </c>
+      <c r="B31" t="s">
+        <v>901</v>
+      </c>
+      <c r="C31" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>904</v>
+      </c>
+      <c r="B32" t="s">
+        <v>905</v>
+      </c>
+      <c r="C32" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>908</v>
+      </c>
+      <c r="B33" t="s">
+        <v>909</v>
+      </c>
+      <c r="C33" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>912</v>
+      </c>
+      <c r="B34" t="s">
+        <v>913</v>
+      </c>
+      <c r="C34" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>916</v>
+      </c>
+      <c r="B35" t="s">
+        <v>917</v>
+      </c>
+      <c r="C35" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>920</v>
+      </c>
+      <c r="B36" t="s">
+        <v>921</v>
+      </c>
+      <c r="C36" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>924</v>
+      </c>
+      <c r="B37" t="s">
+        <v>925</v>
+      </c>
+      <c r="C37" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>928</v>
+      </c>
+      <c r="B38" t="s">
+        <v>929</v>
+      </c>
+      <c r="C38" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>932</v>
+      </c>
+      <c r="B39" t="s">
+        <v>933</v>
+      </c>
+      <c r="C39" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>936</v>
+      </c>
+      <c r="B40" t="s">
+        <v>937</v>
+      </c>
+      <c r="C40" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>940</v>
+      </c>
+      <c r="B41" t="s">
+        <v>941</v>
+      </c>
+      <c r="C41" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>944</v>
+      </c>
+      <c r="B42" t="s">
+        <v>945</v>
+      </c>
+      <c r="C42" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>948</v>
+      </c>
+      <c r="B43" t="s">
+        <v>949</v>
+      </c>
+      <c r="C43" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>952</v>
+      </c>
+      <c r="B44" t="s">
+        <v>953</v>
+      </c>
+      <c r="C44" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>956</v>
+      </c>
+      <c r="B45" t="s">
+        <v>957</v>
+      </c>
+      <c r="C45" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>960</v>
+      </c>
+      <c r="B46" t="s">
+        <v>961</v>
+      </c>
+      <c r="C46" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>964</v>
+      </c>
+      <c r="B47" t="s">
+        <v>965</v>
+      </c>
+      <c r="C47" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>968</v>
+      </c>
+      <c r="B48" t="s">
+        <v>969</v>
+      </c>
+      <c r="C48" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>972</v>
+      </c>
+      <c r="B49" t="s">
+        <v>973</v>
+      </c>
+      <c r="C49" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>976</v>
+      </c>
+      <c r="B50" t="s">
+        <v>977</v>
+      </c>
+      <c r="C50" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>980</v>
+      </c>
+      <c r="B51" t="s">
+        <v>981</v>
+      </c>
+      <c r="C51" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>984</v>
+      </c>
+      <c r="B52" t="s">
+        <v>985</v>
+      </c>
+      <c r="C52" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>988</v>
+      </c>
+      <c r="B53" t="s">
+        <v>989</v>
+      </c>
+      <c r="C53" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>992</v>
+      </c>
+      <c r="B54" t="s">
+        <v>993</v>
+      </c>
+      <c r="C54" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>996</v>
+      </c>
+      <c r="B55" t="s">
+        <v>997</v>
+      </c>
+      <c r="C55" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C56" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C57" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C58" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C59" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C60" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C61" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C62" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C63" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C64" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C65" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C66" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C67" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C68" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C69" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C70" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C71" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C72" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C73" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C74" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C75" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C76" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C77" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C78" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C79" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C80" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C81" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C82" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C84" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C85" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C87" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C88" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C89" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C90" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C91" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C92" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C93" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C94" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C96" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C97" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C98" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C99" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C100" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C101" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C102" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C103" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C104" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C105" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C106" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C107" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C108" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C109" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C110" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C112" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C113" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C114" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C115" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C116" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C117" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C118" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C119" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C120" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C121" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C122" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C123" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C124" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C125" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C126" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C127" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C128" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C129" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C130" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C131" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C132" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C133" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C134" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C135" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C136" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C137" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C138" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C139" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C140" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C141" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C142" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C143" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C144" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C145" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C146" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C147" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C148" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C149" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C150" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C151" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C152" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C153" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C154" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C155" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C156" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C157" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C158" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C159" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C160" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C161" t="s">
+        <v>785</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C161">
+    <sortCondition ref="A2:A161"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3861,7 +9647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -3916,7 +9702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -3964,12 +9750,441 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD34372-BC1B-4E0C-B6B2-120798C3027E}">
+  <dimension ref="A1:A82"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
+    <col min="2" max="1025" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1026" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
